--- a/SQLCoBan_DB_NghiepVu_1.xlsx
+++ b/SQLCoBan_DB_NghiepVu_1.xlsx
@@ -1,111 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView windowWidth="28800" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
+    <t>LOP</t>
+  </si>
+  <si>
+    <t>MaLop (PK)</t>
+  </si>
+  <si>
+    <t>TenLop</t>
+  </si>
+  <si>
     <t>HOCSINH</t>
   </si>
   <si>
-    <t>LOP</t>
+    <t>MaGVCN</t>
+  </si>
+  <si>
+    <t>MaHS (PK)</t>
+  </si>
+  <si>
+    <t>NamHoc</t>
+  </si>
+  <si>
+    <t>HoTenHS</t>
+  </si>
+  <si>
+    <t>HoTenPH</t>
+  </si>
+  <si>
+    <t>KETQUAHOCTAP</t>
   </si>
   <si>
     <t>GIAOVIEN</t>
   </si>
   <si>
+    <t>GioiTinh</t>
+  </si>
+  <si>
+    <t>MaGV (PK)</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>HocKy (PK)</t>
+  </si>
+  <si>
+    <t>HoTenGV</t>
+  </si>
+  <si>
+    <t>MaLop</t>
+  </si>
+  <si>
+    <t>MaMH (PK)</t>
+  </si>
+  <si>
+    <t>DiemThiGiuaKy</t>
+  </si>
+  <si>
+    <t>DiemThiCuoiKy</t>
+  </si>
+  <si>
+    <t>MONHOC</t>
+  </si>
+  <si>
+    <t>NgayGioThiCuoiKy</t>
+  </si>
+  <si>
     <t>PHUTRACHBOMON</t>
   </si>
   <si>
-    <t>MONHOC</t>
-  </si>
-  <si>
-    <t>KETQUAHOCTAP</t>
-  </si>
-  <si>
-    <t>HoTenHS</t>
-  </si>
-  <si>
-    <t>DiaChi</t>
+    <t>MaGVPT (PK)</t>
   </si>
   <si>
     <t>TenMH</t>
-  </si>
-  <si>
-    <t>DiemThiGiuaKy</t>
-  </si>
-  <si>
-    <t>DiemThiCuoiKy</t>
-  </si>
-  <si>
-    <t>MaLop</t>
-  </si>
-  <si>
-    <t>TenLop</t>
-  </si>
-  <si>
-    <t>MaGVCN</t>
-  </si>
-  <si>
-    <t>HoTenGV</t>
-  </si>
-  <si>
-    <t>NamHoc</t>
-  </si>
-  <si>
-    <t>MaHS (PK)</t>
-  </si>
-  <si>
-    <t>MaMH (PK)</t>
-  </si>
-  <si>
-    <t>HocKy (PK)</t>
-  </si>
-  <si>
-    <t>MaLop (PK)</t>
-  </si>
-  <si>
-    <t>MaGV (PK)</t>
-  </si>
-  <si>
-    <t>MaGVPT (PK)</t>
-  </si>
-  <si>
-    <t>HoTenPH</t>
-  </si>
-  <si>
-    <t>GioiTinh</t>
-  </si>
-  <si>
-    <t>NgayGioThiCuoiKy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,7 +114,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,14 +122,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,11 +138,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +306,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -165,22 +503,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -191,24 +771,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -222,15 +846,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1436077" y="835269"/>
-          <a:ext cx="595923" cy="591039"/>
+          <a:off x="1666875" y="981710"/>
+          <a:ext cx="596265" cy="567690"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -269,15 +893,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>112346</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1436077" y="2505808"/>
-          <a:ext cx="2486269" cy="390769"/>
+          <a:off x="1666875" y="2581910"/>
+          <a:ext cx="2892425" cy="374650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -316,15 +940,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>132521</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5102087" y="635000"/>
-          <a:ext cx="618435" cy="773043"/>
+          <a:off x="5941060" y="799465"/>
+          <a:ext cx="720090" cy="755015"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -363,15 +987,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5102087" y="1397000"/>
-          <a:ext cx="629478" cy="1104348"/>
+          <a:off x="5941060" y="1543685"/>
+          <a:ext cx="730885" cy="1077595"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -410,15 +1034,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Straight Connector 28"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3572565" y="281609"/>
-          <a:ext cx="336826" cy="0"/>
+          <a:off x="4109085" y="454660"/>
+          <a:ext cx="336550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -455,15 +1079,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>93870</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Straight Connector 30"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3578087" y="287130"/>
-          <a:ext cx="0" cy="2357783"/>
+          <a:off x="4114165" y="460375"/>
+          <a:ext cx="0" cy="2299970"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -500,15 +1124,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>93870</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3578087" y="2644913"/>
-          <a:ext cx="342348" cy="0"/>
+          <a:off x="4114165" y="2760345"/>
+          <a:ext cx="450215" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -547,15 +1171,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104913</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1413565" y="484851"/>
-          <a:ext cx="2506234" cy="1442236"/>
+          <a:off x="1515110" y="475615"/>
+          <a:ext cx="3048635" cy="1407160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -594,15 +1218,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>87285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1423972" y="1905000"/>
-          <a:ext cx="602506" cy="733328"/>
+          <a:off x="1525270" y="1860550"/>
+          <a:ext cx="738505" cy="715645"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -883,161 +1507,159 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="17.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:6">
       <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F3" s="3" t="s">
-        <v>19</v>
+    <row r="4" spans="6:6">
+      <c r="F4" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F4" s="4" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:4">
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:4">
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6">
       <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6">
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQLCoBan_DB_NghiepVu_1.xlsx
+++ b/SQLCoBan_DB_NghiepVu_1.xlsx
@@ -96,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,36 +151,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +210,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -217,8 +225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,61 +242,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +301,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,19 +433,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,109 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +510,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -528,15 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,9 +569,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,183 +607,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,7 +1509,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
